--- a/unspecified_predictions.xlsx
+++ b/unspecified_predictions.xlsx
@@ -887,7 +887,7 @@
         <v>464.0722</v>
       </c>
       <c r="AK3" t="n">
-        <v>432.1308000000002</v>
+        <v>432.1308000000001</v>
       </c>
       <c r="AL3" t="n">
         <v>12.75246</v>
@@ -3551,7 +3551,7 @@
         <v>449.5004</v>
       </c>
       <c r="AK23" t="n">
-        <v>412.3488</v>
+        <v>412.3488000000001</v>
       </c>
       <c r="AL23" t="n">
         <v>12.43476</v>
@@ -5022,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>269.0578000000005</v>
+        <v>269.0578000000004</v>
       </c>
       <c r="AK34" t="n">
         <v>393.2002000000002</v>
       </c>
       <c r="AL34" t="n">
-        <v>16.03496000000003</v>
+        <v>16.03496000000002</v>
       </c>
     </row>
     <row r="35">
@@ -5427,7 +5427,7 @@
         <v>322.7364</v>
       </c>
       <c r="AK37" t="n">
-        <v>389.3778</v>
+        <v>389.3778000000001</v>
       </c>
       <c r="AL37" t="n">
         <v>12.89458000000001</v>
@@ -5963,7 +5963,7 @@
         <v>318.4504</v>
       </c>
       <c r="AK41" t="n">
-        <v>382.1086000000001</v>
+        <v>382.1086</v>
       </c>
       <c r="AL41" t="n">
         <v>13.41336000000001</v>
@@ -6231,7 +6231,7 @@
         <v>341.1748000000001</v>
       </c>
       <c r="AK43" t="n">
-        <v>380.8000000000002</v>
+        <v>380.8000000000001</v>
       </c>
       <c r="AL43" t="n">
         <v>13.64080000000001</v>
@@ -6497,7 +6497,7 @@
         <v>279.7952000000005</v>
       </c>
       <c r="AK45" t="n">
-        <v>376.3732000000002</v>
+        <v>376.3732000000001</v>
       </c>
       <c r="AL45" t="n">
         <v>15.82320000000002</v>
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="AJ72" t="n">
-        <v>227.4896000000002</v>
+        <v>227.4896000000001</v>
       </c>
       <c r="AK72" t="n">
         <v>290.1122</v>
@@ -10783,7 +10783,7 @@
         <v>262.2684000000003</v>
       </c>
       <c r="AK77" t="n">
-        <v>411.5402</v>
+        <v>411.5402000000001</v>
       </c>
       <c r="AL77" t="n">
         <v>21.76527999999999</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" t="n">
-        <v>256.1978000000003</v>
+        <v>256.1978000000002</v>
       </c>
       <c r="AK78" t="n">
         <v>340.8226000000001</v>
@@ -11456,7 +11456,7 @@
         <v>366.541</v>
       </c>
       <c r="AL82" t="n">
-        <v>21.98041999999997</v>
+        <v>21.98041999999998</v>
       </c>
     </row>
     <row r="83">
@@ -13865,7 +13865,7 @@
         <v>452.1536</v>
       </c>
       <c r="AK100" t="n">
-        <v>380.1240000000002</v>
+        <v>380.1240000000003</v>
       </c>
       <c r="AL100" t="n">
         <v>13.66203999999998</v>
@@ -14002,7 +14002,7 @@
         <v>380.1440000000002</v>
       </c>
       <c r="AL101" t="n">
-        <v>13.79523999999999</v>
+        <v>13.79523999999998</v>
       </c>
     </row>
     <row r="102">
@@ -14535,7 +14535,7 @@
         <v>353.558</v>
       </c>
       <c r="AK105" t="n">
-        <v>269.7932000000001</v>
+        <v>269.7932000000002</v>
       </c>
       <c r="AL105" t="n">
         <v>11.06446</v>
@@ -14669,7 +14669,7 @@
         <v>343.958</v>
       </c>
       <c r="AK106" t="n">
-        <v>272.4602000000001</v>
+        <v>272.4602000000002</v>
       </c>
       <c r="AL106" t="n">
         <v>10.85766</v>
@@ -14803,10 +14803,10 @@
         <v>342.373</v>
       </c>
       <c r="AK107" t="n">
-        <v>272.3962000000001</v>
+        <v>272.3962000000002</v>
       </c>
       <c r="AL107" t="n">
-        <v>10.56006</v>
+        <v>10.56005999999999</v>
       </c>
     </row>
     <row r="108">
@@ -15610,7 +15610,7 @@
         <v>419.513</v>
       </c>
       <c r="AL113" t="n">
-        <v>12.4412</v>
+        <v>12.44120000000001</v>
       </c>
     </row>
     <row r="114">
@@ -16276,7 +16276,7 @@
         <v>375.54</v>
       </c>
       <c r="AL118" t="n">
-        <v>12.48038000000002</v>
+        <v>12.48038000000001</v>
       </c>
     </row>
     <row r="119">
@@ -16541,7 +16541,7 @@
         <v>454.4542000000001</v>
       </c>
       <c r="AK120" t="n">
-        <v>384.5168000000003</v>
+        <v>384.5168000000002</v>
       </c>
       <c r="AL120" t="n">
         <v>16.47228000000001</v>
@@ -16812,7 +16812,7 @@
         <v>383.3042000000003</v>
       </c>
       <c r="AL122" t="n">
-        <v>16.63468000000002</v>
+        <v>16.63468000000001</v>
       </c>
     </row>
     <row r="123">
@@ -17077,7 +17077,7 @@
         <v>450.1842000000001</v>
       </c>
       <c r="AK124" t="n">
-        <v>383.3302000000003</v>
+        <v>383.3302000000002</v>
       </c>
       <c r="AL124" t="n">
         <v>17.14288000000001</v>
@@ -17345,7 +17345,7 @@
         <v>353.73</v>
       </c>
       <c r="AK126" t="n">
-        <v>272.4882000000001</v>
+        <v>272.4882000000002</v>
       </c>
       <c r="AL126" t="n">
         <v>10.53926</v>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="AJ128" t="n">
-        <v>291.6274000000002</v>
+        <v>291.6274000000001</v>
       </c>
       <c r="AK128" t="n">
         <v>391.161</v>
@@ -18406,7 +18406,7 @@
         <v>287.824</v>
       </c>
       <c r="AL134" t="n">
-        <v>26.61269999999999</v>
+        <v>26.6127</v>
       </c>
     </row>
     <row r="135">
@@ -19478,7 +19478,7 @@
         <v>260.0676</v>
       </c>
       <c r="AL142" t="n">
-        <v>21.67664000000001</v>
+        <v>21.67664000000002</v>
       </c>
     </row>
     <row r="143">
@@ -19880,7 +19880,7 @@
         <v>239.9254000000001</v>
       </c>
       <c r="AL145" t="n">
-        <v>17.7764</v>
+        <v>17.77640000000001</v>
       </c>
     </row>
     <row r="146">
@@ -20014,7 +20014,7 @@
         <v>179.1318</v>
       </c>
       <c r="AL146" t="n">
-        <v>22.10863999999999</v>
+        <v>22.10863999999998</v>
       </c>
     </row>
     <row r="147">
@@ -20412,7 +20412,7 @@
         <v>171.2478</v>
       </c>
       <c r="AL149" t="n">
-        <v>22.75143999999998</v>
+        <v>22.75143999999999</v>
       </c>
     </row>
     <row r="150">
@@ -20546,7 +20546,7 @@
         <v>502.922</v>
       </c>
       <c r="AL150" t="n">
-        <v>13.7792</v>
+        <v>13.77920000000001</v>
       </c>
     </row>
     <row r="151">
@@ -20814,7 +20814,7 @@
         <v>486.888</v>
       </c>
       <c r="AL152" t="n">
-        <v>14.0052</v>
+        <v>14.00520000000001</v>
       </c>
     </row>
     <row r="153">
@@ -20948,7 +20948,7 @@
         <v>435.844</v>
       </c>
       <c r="AL153" t="n">
-        <v>14.07778</v>
+        <v>14.07778000000001</v>
       </c>
     </row>
     <row r="154">
@@ -21886,7 +21886,7 @@
         <v>377.206</v>
       </c>
       <c r="AL160" t="n">
-        <v>21.06415999999999</v>
+        <v>21.06415999999998</v>
       </c>
     </row>
     <row r="161">
@@ -25370,7 +25370,7 @@
         <v>245.067</v>
       </c>
       <c r="AL186" t="n">
-        <v>22.63323999999997</v>
+        <v>22.63323999999998</v>
       </c>
     </row>
     <row r="187">
@@ -25906,7 +25906,7 @@
         <v>188.7382</v>
       </c>
       <c r="AL190" t="n">
-        <v>22.71161999999995</v>
+        <v>22.71161999999996</v>
       </c>
     </row>
     <row r="191">
@@ -27112,7 +27112,7 @@
         <v>92.715</v>
       </c>
       <c r="AL199" t="n">
-        <v>18.59469999999999</v>
+        <v>18.5947</v>
       </c>
     </row>
     <row r="200">
@@ -27244,7 +27244,7 @@
         <v>92.71599999999999</v>
       </c>
       <c r="AL200" t="n">
-        <v>18.59669999999999</v>
+        <v>18.5967</v>
       </c>
     </row>
     <row r="201">
@@ -27776,7 +27776,7 @@
         <v>192.8064</v>
       </c>
       <c r="AL204" t="n">
-        <v>18.39224</v>
+        <v>18.39224000000001</v>
       </c>
     </row>
     <row r="205">
@@ -27908,7 +27908,7 @@
         <v>184.4524</v>
       </c>
       <c r="AL205" t="n">
-        <v>18.92944</v>
+        <v>18.92944000000001</v>
       </c>
     </row>
     <row r="206">
@@ -28042,7 +28042,7 @@
         <v>95.792</v>
       </c>
       <c r="AL206" t="n">
-        <v>19.50708</v>
+        <v>19.50708000000001</v>
       </c>
     </row>
     <row r="207">
@@ -29240,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="AJ215" t="n">
-        <v>72.56340000000007</v>
+        <v>72.56340000000009</v>
       </c>
       <c r="AK215" t="n">
         <v>123.089</v>
@@ -29648,7 +29648,7 @@
         <v>186.523</v>
       </c>
       <c r="AL218" t="n">
-        <v>23.21274000000001</v>
+        <v>23.21274000000002</v>
       </c>
     </row>
     <row r="219">
@@ -30048,7 +30048,7 @@
         <v>187.3112</v>
       </c>
       <c r="AL221" t="n">
-        <v>19.18214</v>
+        <v>19.18214000000001</v>
       </c>
     </row>
     <row r="222">
@@ -30450,7 +30450,7 @@
         <v>193.8634</v>
       </c>
       <c r="AL224" t="n">
-        <v>23.75814000000003</v>
+        <v>23.75814000000002</v>
       </c>
     </row>
     <row r="225">
@@ -30714,7 +30714,7 @@
         <v>180.7942</v>
       </c>
       <c r="AL226" t="n">
-        <v>19.71594</v>
+        <v>19.71593999999999</v>
       </c>
     </row>
     <row r="227">
@@ -30982,7 +30982,7 @@
         <v>152.958</v>
       </c>
       <c r="AL228" t="n">
-        <v>29.28075999999998</v>
+        <v>29.28075999999997</v>
       </c>
     </row>
     <row r="229">
@@ -31384,7 +31384,7 @@
         <v>119.753</v>
       </c>
       <c r="AL231" t="n">
-        <v>22.59244</v>
+        <v>22.59243999999999</v>
       </c>
     </row>
     <row r="232">
@@ -31516,7 +31516,7 @@
         <v>179.2032</v>
       </c>
       <c r="AL232" t="n">
-        <v>19.62410000000001</v>
+        <v>19.6241</v>
       </c>
     </row>
     <row r="233">
@@ -32180,7 +32180,7 @@
         <v>180.2292</v>
       </c>
       <c r="AL237" t="n">
-        <v>19.91834</v>
+        <v>19.91833999999999</v>
       </c>
     </row>
     <row r="238">
@@ -33244,7 +33244,7 @@
         <v>140.421</v>
       </c>
       <c r="AL245" t="n">
-        <v>23.14188000000001</v>
+        <v>23.14188</v>
       </c>
     </row>
     <row r="246">
@@ -33642,7 +33642,7 @@
         <v>83.154</v>
       </c>
       <c r="AL248" t="n">
-        <v>24.68416000000002</v>
+        <v>24.68416000000001</v>
       </c>
     </row>
     <row r="249">
@@ -33774,7 +33774,7 @@
         <v>179.2032</v>
       </c>
       <c r="AL249" t="n">
-        <v>19.52010000000001</v>
+        <v>19.5201</v>
       </c>
     </row>
     <row r="250">
@@ -35634,7 +35634,7 @@
         <v>93.69499999999999</v>
       </c>
       <c r="AL263" t="n">
-        <v>19.30088</v>
+        <v>19.30088000000001</v>
       </c>
     </row>
     <row r="264">
@@ -35895,10 +35895,10 @@
         <v>116.1794</v>
       </c>
       <c r="AK265" t="n">
-        <v>148.8826</v>
+        <v>148.8826000000001</v>
       </c>
       <c r="AL265" t="n">
-        <v>25.33527999999994</v>
+        <v>25.33527999999995</v>
       </c>
     </row>
     <row r="266">
@@ -36027,7 +36027,7 @@
         <v>113.6284</v>
       </c>
       <c r="AK266" t="n">
-        <v>143.2406000000001</v>
+        <v>143.2406</v>
       </c>
       <c r="AL266" t="n">
         <v>25.42427999999995</v>
@@ -36426,7 +36426,7 @@
         <v>178.6322</v>
       </c>
       <c r="AL269" t="n">
-        <v>19.53410000000001</v>
+        <v>19.5341</v>
       </c>
     </row>
     <row r="270">
@@ -37614,7 +37614,7 @@
         <v>178.6322</v>
       </c>
       <c r="AL278" t="n">
-        <v>19.53410000000001</v>
+        <v>19.5341</v>
       </c>
     </row>
     <row r="279">
@@ -37746,7 +37746,7 @@
         <v>178.6322</v>
       </c>
       <c r="AL279" t="n">
-        <v>19.53410000000001</v>
+        <v>19.5341</v>
       </c>
     </row>
     <row r="280">
@@ -38010,7 +38010,7 @@
         <v>178.6322</v>
       </c>
       <c r="AL281" t="n">
-        <v>19.53410000000001</v>
+        <v>19.5341</v>
       </c>
     </row>
     <row r="282">
@@ -38412,7 +38412,7 @@
         <v>297.059</v>
       </c>
       <c r="AL284" t="n">
-        <v>22.92550000000002</v>
+        <v>22.92550000000001</v>
       </c>
     </row>
     <row r="285">
